--- a/eoat/항목및일정.xlsx
+++ b/eoat/항목및일정.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gofly\Documents\GitHub\gogorobotics\eoat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2A7287-8D2A-4D7B-BED3-8FFEE06DA53A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5276D8-1D60-4D50-B513-8D08E9700824}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -275,7 +275,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -324,8 +324,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -564,13 +570,89 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00B050"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF00B050"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF00B050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF00B050"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF00B050"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF00B050"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF00B050"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF00B050"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -589,119 +671,146 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1043,8 +1152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BN38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BH40" sqref="BH40"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="M5" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8125" defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
@@ -1059,258 +1168,258 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:66" ht="26.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="24"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="24"/>
-      <c r="AK1" s="24"/>
-      <c r="AL1" s="24"/>
-      <c r="AM1" s="24"/>
-      <c r="AN1" s="24"/>
-      <c r="AO1" s="24"/>
-      <c r="AP1" s="24"/>
-      <c r="AQ1" s="24"/>
-      <c r="AR1" s="24"/>
-      <c r="AS1" s="24"/>
-      <c r="AT1" s="24"/>
-      <c r="AU1" s="24"/>
-      <c r="AV1" s="24"/>
-      <c r="AW1" s="24"/>
-      <c r="AX1" s="24"/>
-      <c r="AY1" s="24"/>
-      <c r="AZ1" s="24"/>
-      <c r="BA1" s="24"/>
-      <c r="BB1" s="24"/>
-      <c r="BC1" s="24"/>
-      <c r="BD1" s="24"/>
-      <c r="BE1" s="24"/>
-      <c r="BF1" s="24"/>
-      <c r="BG1" s="24"/>
-      <c r="BH1" s="24"/>
-      <c r="BI1" s="24"/>
-      <c r="BJ1" s="24"/>
-      <c r="BK1" s="24"/>
-      <c r="BL1" s="24"/>
-      <c r="BM1" s="24"/>
-      <c r="BN1" s="24"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="27"/>
+      <c r="AJ1" s="27"/>
+      <c r="AK1" s="27"/>
+      <c r="AL1" s="27"/>
+      <c r="AM1" s="27"/>
+      <c r="AN1" s="27"/>
+      <c r="AO1" s="27"/>
+      <c r="AP1" s="27"/>
+      <c r="AQ1" s="27"/>
+      <c r="AR1" s="27"/>
+      <c r="AS1" s="27"/>
+      <c r="AT1" s="27"/>
+      <c r="AU1" s="27"/>
+      <c r="AV1" s="27"/>
+      <c r="AW1" s="27"/>
+      <c r="AX1" s="27"/>
+      <c r="AY1" s="27"/>
+      <c r="AZ1" s="27"/>
+      <c r="BA1" s="27"/>
+      <c r="BB1" s="27"/>
+      <c r="BC1" s="27"/>
+      <c r="BD1" s="27"/>
+      <c r="BE1" s="27"/>
+      <c r="BF1" s="27"/>
+      <c r="BG1" s="27"/>
+      <c r="BH1" s="27"/>
+      <c r="BI1" s="27"/>
+      <c r="BJ1" s="27"/>
+      <c r="BK1" s="27"/>
+      <c r="BL1" s="27"/>
+      <c r="BM1" s="27"/>
+      <c r="BN1" s="27"/>
     </row>
     <row r="2" spans="2:66" ht="13.9" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="BD2" s="28"/>
-      <c r="BE2" s="29" t="s">
+      <c r="BD2" s="17"/>
+      <c r="BE2" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="BF2" s="29"/>
-      <c r="BG2" s="29"/>
-      <c r="BH2" s="29"/>
-      <c r="BI2" s="29"/>
-      <c r="BJ2" s="29"/>
-      <c r="BK2" s="29"/>
-      <c r="BL2" s="29"/>
-      <c r="BM2" s="29"/>
-      <c r="BN2" s="29"/>
+      <c r="BF2" s="28"/>
+      <c r="BG2" s="28"/>
+      <c r="BH2" s="28"/>
+      <c r="BI2" s="28"/>
+      <c r="BJ2" s="28"/>
+      <c r="BK2" s="28"/>
+      <c r="BL2" s="28"/>
+      <c r="BM2" s="28"/>
+      <c r="BN2" s="28"/>
     </row>
     <row r="3" spans="2:66" ht="17.45" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="40">
         <v>7</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="13">
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="21">
         <v>8</v>
       </c>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="13"/>
-      <c r="AB3" s="13"/>
-      <c r="AC3" s="13"/>
-      <c r="AD3" s="13"/>
-      <c r="AE3" s="13"/>
-      <c r="AF3" s="13"/>
-      <c r="AG3" s="13"/>
-      <c r="AH3" s="13"/>
-      <c r="AI3" s="13"/>
-      <c r="AJ3" s="13"/>
-      <c r="AK3" s="13"/>
-      <c r="AL3" s="13"/>
-      <c r="AM3" s="13"/>
-      <c r="AN3" s="13"/>
-      <c r="AO3" s="13"/>
-      <c r="AP3" s="13"/>
-      <c r="AQ3" s="13"/>
-      <c r="AR3" s="13"/>
-      <c r="AS3" s="13"/>
-      <c r="AT3" s="13"/>
-      <c r="AU3" s="13"/>
-      <c r="AV3" s="13"/>
-      <c r="AW3" s="13"/>
-      <c r="AX3" s="13"/>
-      <c r="AY3" s="13"/>
-      <c r="AZ3" s="13"/>
-      <c r="BA3" s="13"/>
-      <c r="BB3" s="13"/>
-      <c r="BC3" s="13"/>
-      <c r="BD3" s="14">
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="21"/>
+      <c r="AD3" s="21"/>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="21"/>
+      <c r="AG3" s="21"/>
+      <c r="AH3" s="21"/>
+      <c r="AI3" s="21"/>
+      <c r="AJ3" s="21"/>
+      <c r="AK3" s="21"/>
+      <c r="AL3" s="21"/>
+      <c r="AM3" s="21"/>
+      <c r="AN3" s="21"/>
+      <c r="AO3" s="21"/>
+      <c r="AP3" s="21"/>
+      <c r="AQ3" s="21"/>
+      <c r="AR3" s="21"/>
+      <c r="AS3" s="21"/>
+      <c r="AT3" s="21"/>
+      <c r="AU3" s="21"/>
+      <c r="AV3" s="21"/>
+      <c r="AW3" s="21"/>
+      <c r="AX3" s="21"/>
+      <c r="AY3" s="21"/>
+      <c r="AZ3" s="21"/>
+      <c r="BA3" s="21"/>
+      <c r="BB3" s="21"/>
+      <c r="BC3" s="21"/>
+      <c r="BD3" s="22">
         <v>9</v>
       </c>
-      <c r="BE3" s="14"/>
-      <c r="BF3" s="14"/>
-      <c r="BG3" s="14"/>
-      <c r="BH3" s="14"/>
-      <c r="BI3" s="14"/>
-      <c r="BJ3" s="14"/>
-      <c r="BK3" s="14"/>
-      <c r="BL3" s="14"/>
-      <c r="BM3" s="14"/>
-      <c r="BN3" s="15"/>
+      <c r="BE3" s="22"/>
+      <c r="BF3" s="22"/>
+      <c r="BG3" s="22"/>
+      <c r="BH3" s="22"/>
+      <c r="BI3" s="22"/>
+      <c r="BJ3" s="22"/>
+      <c r="BK3" s="22"/>
+      <c r="BL3" s="22"/>
+      <c r="BM3" s="22"/>
+      <c r="BN3" s="23"/>
     </row>
-    <row r="4" spans="2:66" ht="17.45" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B4" s="30"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="35" t="s">
+    <row r="4" spans="2:66" ht="17.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B4" s="25"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="35" t="s">
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="35" t="s">
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
-      <c r="X4" s="37"/>
-      <c r="Y4" s="38" t="s">
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="39"/>
-      <c r="AF4" s="40"/>
-      <c r="AG4" s="38" t="s">
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="48"/>
+      <c r="AB4" s="33"/>
+      <c r="AC4" s="33"/>
+      <c r="AD4" s="33"/>
+      <c r="AE4" s="33"/>
+      <c r="AF4" s="34"/>
+      <c r="AG4" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="AH4" s="39"/>
-      <c r="AI4" s="39"/>
-      <c r="AJ4" s="39"/>
-      <c r="AK4" s="39"/>
-      <c r="AL4" s="39"/>
-      <c r="AM4" s="40"/>
-      <c r="AN4" s="38" t="s">
+      <c r="AH4" s="33"/>
+      <c r="AI4" s="33"/>
+      <c r="AJ4" s="33"/>
+      <c r="AK4" s="33"/>
+      <c r="AL4" s="33"/>
+      <c r="AM4" s="34"/>
+      <c r="AN4" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="AO4" s="39"/>
-      <c r="AP4" s="39"/>
-      <c r="AQ4" s="39"/>
-      <c r="AR4" s="39"/>
-      <c r="AS4" s="39"/>
-      <c r="AT4" s="40"/>
-      <c r="AU4" s="38" t="s">
+      <c r="AO4" s="33"/>
+      <c r="AP4" s="33"/>
+      <c r="AQ4" s="33"/>
+      <c r="AR4" s="33"/>
+      <c r="AS4" s="33"/>
+      <c r="AT4" s="34"/>
+      <c r="AU4" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="AV4" s="39"/>
-      <c r="AW4" s="39"/>
-      <c r="AX4" s="39"/>
-      <c r="AY4" s="39"/>
-      <c r="AZ4" s="39"/>
-      <c r="BA4" s="40"/>
-      <c r="BB4" s="32"/>
-      <c r="BC4" s="32"/>
-      <c r="BD4" s="41" t="s">
+      <c r="AV4" s="33"/>
+      <c r="AW4" s="33"/>
+      <c r="AX4" s="33"/>
+      <c r="AY4" s="33"/>
+      <c r="AZ4" s="33"/>
+      <c r="BA4" s="34"/>
+      <c r="BB4" s="18"/>
+      <c r="BC4" s="18"/>
+      <c r="BD4" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="BE4" s="42"/>
-      <c r="BF4" s="42"/>
-      <c r="BG4" s="42"/>
-      <c r="BH4" s="43"/>
-      <c r="BI4" s="33"/>
-      <c r="BJ4" s="33"/>
-      <c r="BK4" s="33"/>
-      <c r="BL4" s="33"/>
-      <c r="BM4" s="33"/>
-      <c r="BN4" s="34"/>
+      <c r="BE4" s="36"/>
+      <c r="BF4" s="36"/>
+      <c r="BG4" s="36"/>
+      <c r="BH4" s="37"/>
+      <c r="BI4" s="19"/>
+      <c r="BJ4" s="19"/>
+      <c r="BK4" s="19"/>
+      <c r="BL4" s="19"/>
+      <c r="BM4" s="19"/>
+      <c r="BN4" s="20"/>
     </row>
-    <row r="5" spans="2:66" x14ac:dyDescent="0.6">
-      <c r="B5" s="16"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+    <row r="5" spans="2:66" ht="13.9" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B5" s="26"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
       <c r="F5" s="5">
         <v>13</v>
       </c>
@@ -1362,22 +1471,22 @@
       <c r="V5" s="5">
         <v>29</v>
       </c>
-      <c r="W5" s="5">
+      <c r="W5" s="44">
         <v>30</v>
       </c>
-      <c r="X5" s="5">
+      <c r="X5" s="50">
         <v>31</v>
       </c>
-      <c r="Y5" s="2">
+      <c r="Y5" s="51">
         <v>1</v>
       </c>
-      <c r="Z5" s="2">
+      <c r="Z5" s="51">
         <v>2</v>
       </c>
-      <c r="AA5" s="2">
+      <c r="AA5" s="52">
         <v>3</v>
       </c>
-      <c r="AB5" s="2">
+      <c r="AB5" s="45">
         <v>4</v>
       </c>
       <c r="AC5" s="2">
@@ -1491,15 +1600,15 @@
       <c r="BM5" s="2">
         <v>10</v>
       </c>
-      <c r="BN5" s="17">
+      <c r="BN5" s="8">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:66" ht="12.85" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B6" s="18" t="s">
+    <row r="6" spans="2:66" ht="12.85" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
+      <c r="B6" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="38" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1508,7 +1617,7 @@
       <c r="E6" s="2">
         <v>1</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="7"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -1526,10 +1635,10 @@
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
+      <c r="X6" s="49"/>
+      <c r="Y6" s="49"/>
+      <c r="Z6" s="49"/>
+      <c r="AA6" s="49"/>
       <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
@@ -1568,13 +1677,13 @@
       <c r="BK6" s="2"/>
       <c r="BL6" s="2"/>
       <c r="BM6" s="2"/>
-      <c r="BN6" s="17"/>
+      <c r="BN6" s="8"/>
     </row>
     <row r="7" spans="2:66" ht="12.85" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="38"/>
       <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1582,8 +1691,8 @@
         <v>2</v>
       </c>
       <c r="F7" s="4"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -1641,13 +1750,13 @@
       <c r="BK7" s="2"/>
       <c r="BL7" s="2"/>
       <c r="BM7" s="2"/>
-      <c r="BN7" s="17"/>
+      <c r="BN7" s="8"/>
     </row>
     <row r="8" spans="2:66" ht="12.85" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="38"/>
       <c r="D8" s="2" t="s">
         <v>27</v>
       </c>
@@ -1657,11 +1766,11 @@
       <c r="F8" s="2"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
@@ -1714,11 +1823,11 @@
       <c r="BK8" s="2"/>
       <c r="BL8" s="2"/>
       <c r="BM8" s="2"/>
-      <c r="BN8" s="17"/>
+      <c r="BN8" s="8"/>
     </row>
     <row r="9" spans="2:66" ht="12.85" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B9" s="18"/>
-      <c r="C9" s="6"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="38"/>
       <c r="D9" s="3" t="s">
         <v>22</v>
       </c>
@@ -1736,7 +1845,7 @@
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="25"/>
+      <c r="Q9" s="14"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
@@ -1785,11 +1894,11 @@
       <c r="BK9" s="2"/>
       <c r="BL9" s="2"/>
       <c r="BM9" s="2"/>
-      <c r="BN9" s="17"/>
+      <c r="BN9" s="8"/>
     </row>
     <row r="10" spans="2:66" ht="12.85" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="18"/>
-      <c r="C10" s="6"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="38"/>
       <c r="D10" s="3" t="s">
         <v>36</v>
       </c>
@@ -1807,7 +1916,7 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="26"/>
+      <c r="Q10" s="15"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
@@ -1856,11 +1965,11 @@
       <c r="BK10" s="2"/>
       <c r="BL10" s="2"/>
       <c r="BM10" s="2"/>
-      <c r="BN10" s="17"/>
+      <c r="BN10" s="8"/>
     </row>
     <row r="11" spans="2:66" ht="12.85" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B11" s="18"/>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="9"/>
+      <c r="C11" s="38" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -1890,7 +1999,7 @@
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
-      <c r="AA11" s="25"/>
+      <c r="AA11" s="14"/>
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
@@ -1929,11 +2038,11 @@
       <c r="BK11" s="2"/>
       <c r="BL11" s="2"/>
       <c r="BM11" s="2"/>
-      <c r="BN11" s="17"/>
+      <c r="BN11" s="8"/>
     </row>
     <row r="12" spans="2:66" ht="12.85" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B12" s="18"/>
-      <c r="C12" s="6"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="38"/>
       <c r="D12" s="2" t="s">
         <v>7</v>
       </c>
@@ -1961,7 +2070,7 @@
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
-      <c r="AA12" s="25"/>
+      <c r="AA12" s="14"/>
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
@@ -2000,13 +2109,13 @@
       <c r="BK12" s="2"/>
       <c r="BL12" s="2"/>
       <c r="BM12" s="2"/>
-      <c r="BN12" s="17"/>
+      <c r="BN12" s="8"/>
     </row>
     <row r="13" spans="2:66" ht="12.85" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="38" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -2015,14 +2124,14 @@
       <c r="E13" s="2">
         <v>3</v>
       </c>
-      <c r="F13" s="9"/>
+      <c r="F13" s="7"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
@@ -2075,13 +2184,13 @@
       <c r="BK13" s="2"/>
       <c r="BL13" s="2"/>
       <c r="BM13" s="2"/>
-      <c r="BN13" s="17"/>
+      <c r="BN13" s="8"/>
     </row>
     <row r="14" spans="2:66" ht="12.85" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="6"/>
+      <c r="C14" s="38"/>
       <c r="D14" s="2" t="s">
         <v>8</v>
       </c>
@@ -2096,8 +2205,8 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="2"/>
@@ -2148,13 +2257,13 @@
       <c r="BK14" s="2"/>
       <c r="BL14" s="2"/>
       <c r="BM14" s="2"/>
-      <c r="BN14" s="17"/>
+      <c r="BN14" s="8"/>
     </row>
     <row r="15" spans="2:66" ht="12.85" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="6"/>
+      <c r="C15" s="38"/>
       <c r="D15" s="2" t="s">
         <v>14</v>
       </c>
@@ -2169,8 +2278,8 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="2"/>
@@ -2221,13 +2330,13 @@
       <c r="BK15" s="2"/>
       <c r="BL15" s="2"/>
       <c r="BM15" s="2"/>
-      <c r="BN15" s="17"/>
+      <c r="BN15" s="8"/>
     </row>
     <row r="16" spans="2:66" ht="12.85" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="6"/>
+      <c r="C16" s="38"/>
       <c r="D16" s="2" t="s">
         <v>10</v>
       </c>
@@ -2256,9 +2365,9 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
-      <c r="AB16" s="9"/>
-      <c r="AC16" s="9"/>
-      <c r="AD16" s="9"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="7"/>
+      <c r="AD16" s="7"/>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
@@ -2294,13 +2403,13 @@
       <c r="BK16" s="2"/>
       <c r="BL16" s="2"/>
       <c r="BM16" s="2"/>
-      <c r="BN16" s="17"/>
+      <c r="BN16" s="8"/>
     </row>
     <row r="17" spans="2:66" ht="12.85" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="6"/>
+      <c r="C17" s="38"/>
       <c r="D17" s="2" t="s">
         <v>11</v>
       </c>
@@ -2332,11 +2441,11 @@
       <c r="AB17" s="2"/>
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
-      <c r="AE17" s="9"/>
-      <c r="AF17" s="9"/>
-      <c r="AG17" s="9"/>
-      <c r="AH17" s="9"/>
-      <c r="AI17" s="9"/>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="7"/>
+      <c r="AG17" s="7"/>
+      <c r="AH17" s="7"/>
+      <c r="AI17" s="7"/>
       <c r="AJ17" s="2"/>
       <c r="AK17" s="2"/>
       <c r="AL17" s="2"/>
@@ -2367,13 +2476,13 @@
       <c r="BK17" s="2"/>
       <c r="BL17" s="2"/>
       <c r="BM17" s="2"/>
-      <c r="BN17" s="17"/>
+      <c r="BN17" s="8"/>
     </row>
     <row r="18" spans="2:66" ht="12.85" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="6"/>
+      <c r="C18" s="38"/>
       <c r="D18" s="2" t="s">
         <v>17</v>
       </c>
@@ -2396,9 +2505,9 @@
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="9"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
@@ -2440,13 +2549,13 @@
       <c r="BK18" s="2"/>
       <c r="BL18" s="2"/>
       <c r="BM18" s="2"/>
-      <c r="BN18" s="17"/>
+      <c r="BN18" s="8"/>
     </row>
     <row r="19" spans="2:66" ht="12.85" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="6"/>
+      <c r="C19" s="38"/>
       <c r="D19" s="2" t="s">
         <v>12</v>
       </c>
@@ -2472,9 +2581,9 @@
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
-      <c r="Y19" s="9"/>
-      <c r="Z19" s="9"/>
-      <c r="AA19" s="9"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
       <c r="AB19" s="2"/>
       <c r="AC19" s="2"/>
       <c r="AD19" s="2"/>
@@ -2513,13 +2622,13 @@
       <c r="BK19" s="2"/>
       <c r="BL19" s="2"/>
       <c r="BM19" s="2"/>
-      <c r="BN19" s="17"/>
+      <c r="BN19" s="8"/>
     </row>
     <row r="20" spans="2:66" ht="12.85" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="6"/>
+      <c r="C20" s="38"/>
       <c r="D20" s="2" t="s">
         <v>13</v>
       </c>
@@ -2556,9 +2665,9 @@
       <c r="AG20" s="2"/>
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
-      <c r="AJ20" s="9"/>
-      <c r="AK20" s="9"/>
-      <c r="AL20" s="9"/>
+      <c r="AJ20" s="7"/>
+      <c r="AK20" s="7"/>
+      <c r="AL20" s="7"/>
       <c r="AM20" s="2"/>
       <c r="AN20" s="2"/>
       <c r="AO20" s="2"/>
@@ -2586,13 +2695,13 @@
       <c r="BK20" s="2"/>
       <c r="BL20" s="2"/>
       <c r="BM20" s="2"/>
-      <c r="BN20" s="17"/>
+      <c r="BN20" s="8"/>
     </row>
     <row r="21" spans="2:66" ht="12.85" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="6"/>
+      <c r="C21" s="38"/>
       <c r="D21" s="2" t="s">
         <v>18</v>
       </c>
@@ -2609,9 +2718,9 @@
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
@@ -2659,13 +2768,13 @@
       <c r="BK21" s="2"/>
       <c r="BL21" s="2"/>
       <c r="BM21" s="2"/>
-      <c r="BN21" s="17"/>
+      <c r="BN21" s="8"/>
     </row>
     <row r="22" spans="2:66" ht="12.85" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="6"/>
+      <c r="C22" s="38"/>
       <c r="D22" s="2" t="s">
         <v>19</v>
       </c>
@@ -2685,9 +2794,9 @@
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="2"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
@@ -2732,13 +2841,13 @@
       <c r="BK22" s="2"/>
       <c r="BL22" s="2"/>
       <c r="BM22" s="2"/>
-      <c r="BN22" s="17"/>
+      <c r="BN22" s="8"/>
     </row>
     <row r="23" spans="2:66" ht="12.85" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="6"/>
+      <c r="C23" s="38"/>
       <c r="D23" s="2" t="s">
         <v>40</v>
       </c>
@@ -2784,7 +2893,7 @@
       <c r="AP23" s="2"/>
       <c r="AQ23" s="2"/>
       <c r="AR23" s="2"/>
-      <c r="AS23" s="9"/>
+      <c r="AS23" s="7"/>
       <c r="AT23" s="4"/>
       <c r="AU23" s="2"/>
       <c r="AV23" s="2"/>
@@ -2805,13 +2914,13 @@
       <c r="BK23" s="2"/>
       <c r="BL23" s="2"/>
       <c r="BM23" s="2"/>
-      <c r="BN23" s="17"/>
+      <c r="BN23" s="8"/>
     </row>
     <row r="24" spans="2:66" ht="12.85" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="6"/>
+      <c r="C24" s="38"/>
       <c r="D24" s="2" t="s">
         <v>21</v>
       </c>
@@ -2857,7 +2966,7 @@
       <c r="AP24" s="2"/>
       <c r="AQ24" s="2"/>
       <c r="AR24" s="2"/>
-      <c r="AS24" s="9"/>
+      <c r="AS24" s="7"/>
       <c r="AT24" s="2"/>
       <c r="AU24" s="2"/>
       <c r="AV24" s="2"/>
@@ -2878,13 +2987,13 @@
       <c r="BK24" s="2"/>
       <c r="BL24" s="2"/>
       <c r="BM24" s="2"/>
-      <c r="BN24" s="17"/>
+      <c r="BN24" s="8"/>
     </row>
     <row r="25" spans="2:66" ht="12.85" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="6"/>
+      <c r="C25" s="38"/>
       <c r="D25" s="2" t="s">
         <v>42</v>
       </c>
@@ -2930,11 +3039,11 @@
       <c r="AP25" s="2"/>
       <c r="AQ25" s="2"/>
       <c r="AR25" s="2"/>
-      <c r="AS25" s="9"/>
-      <c r="AT25" s="9"/>
-      <c r="AU25" s="9"/>
-      <c r="AV25" s="9"/>
-      <c r="AW25" s="9"/>
+      <c r="AS25" s="7"/>
+      <c r="AT25" s="7"/>
+      <c r="AU25" s="7"/>
+      <c r="AV25" s="7"/>
+      <c r="AW25" s="7"/>
       <c r="AX25" s="2"/>
       <c r="AY25" s="2"/>
       <c r="AZ25" s="2"/>
@@ -2951,13 +3060,13 @@
       <c r="BK25" s="2"/>
       <c r="BL25" s="2"/>
       <c r="BM25" s="2"/>
-      <c r="BN25" s="17"/>
+      <c r="BN25" s="8"/>
     </row>
     <row r="26" spans="2:66" ht="12.85" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="38" t="s">
         <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -2999,7 +3108,7 @@
       <c r="AJ26" s="2"/>
       <c r="AK26" s="2"/>
       <c r="AL26" s="2"/>
-      <c r="AM26" s="9"/>
+      <c r="AM26" s="7"/>
       <c r="AN26" s="2"/>
       <c r="AO26" s="2"/>
       <c r="AP26" s="2"/>
@@ -3026,13 +3135,13 @@
       <c r="BK26" s="2"/>
       <c r="BL26" s="2"/>
       <c r="BM26" s="2"/>
-      <c r="BN26" s="17"/>
+      <c r="BN26" s="8"/>
     </row>
     <row r="27" spans="2:66" ht="12.85" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="38"/>
       <c r="D27" s="2" t="s">
         <v>29</v>
       </c>
@@ -3073,7 +3182,7 @@
       <c r="AK27" s="2"/>
       <c r="AL27" s="2"/>
       <c r="AM27" s="2"/>
-      <c r="AN27" s="9"/>
+      <c r="AN27" s="7"/>
       <c r="AO27" s="2"/>
       <c r="AP27" s="2"/>
       <c r="AQ27" s="2"/>
@@ -3099,13 +3208,13 @@
       <c r="BK27" s="2"/>
       <c r="BL27" s="2"/>
       <c r="BM27" s="2"/>
-      <c r="BN27" s="17"/>
+      <c r="BN27" s="8"/>
     </row>
     <row r="28" spans="2:66" ht="12.85" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="38"/>
       <c r="D28" s="2" t="s">
         <v>32</v>
       </c>
@@ -3147,7 +3256,7 @@
       <c r="AL28" s="2"/>
       <c r="AM28" s="2"/>
       <c r="AN28" s="2"/>
-      <c r="AO28" s="9"/>
+      <c r="AO28" s="7"/>
       <c r="AP28" s="2"/>
       <c r="AQ28" s="2"/>
       <c r="AR28" s="2"/>
@@ -3172,13 +3281,13 @@
       <c r="BK28" s="2"/>
       <c r="BL28" s="2"/>
       <c r="BM28" s="2"/>
-      <c r="BN28" s="17"/>
+      <c r="BN28" s="8"/>
     </row>
     <row r="29" spans="2:66" ht="12.85" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="6"/>
+      <c r="C29" s="38"/>
       <c r="D29" s="2" t="s">
         <v>31</v>
       </c>
@@ -3221,7 +3330,7 @@
       <c r="AM29" s="2"/>
       <c r="AN29" s="2"/>
       <c r="AO29" s="2"/>
-      <c r="AP29" s="9"/>
+      <c r="AP29" s="7"/>
       <c r="AQ29" s="2"/>
       <c r="AR29" s="2"/>
       <c r="AS29" s="2"/>
@@ -3245,13 +3354,13 @@
       <c r="BK29" s="2"/>
       <c r="BL29" s="2"/>
       <c r="BM29" s="2"/>
-      <c r="BN29" s="17"/>
+      <c r="BN29" s="8"/>
     </row>
     <row r="30" spans="2:66" ht="12.85" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="6"/>
+      <c r="C30" s="38"/>
       <c r="D30" s="2" t="s">
         <v>9</v>
       </c>
@@ -3295,7 +3404,7 @@
       <c r="AN30" s="2"/>
       <c r="AO30" s="2"/>
       <c r="AP30" s="2"/>
-      <c r="AQ30" s="9"/>
+      <c r="AQ30" s="7"/>
       <c r="AR30" s="2"/>
       <c r="AS30" s="2"/>
       <c r="AT30" s="2"/>
@@ -3318,11 +3427,11 @@
       <c r="BK30" s="2"/>
       <c r="BL30" s="2"/>
       <c r="BM30" s="2"/>
-      <c r="BN30" s="17"/>
+      <c r="BN30" s="8"/>
     </row>
     <row r="31" spans="2:66" ht="12.85" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B31" s="18"/>
-      <c r="C31" s="6" t="s">
+      <c r="B31" s="9"/>
+      <c r="C31" s="38" t="s">
         <v>26</v>
       </c>
       <c r="D31" s="2" t="s">
@@ -3356,14 +3465,14 @@
       <c r="AB31" s="2"/>
       <c r="AC31" s="2"/>
       <c r="AD31" s="2"/>
-      <c r="AE31" s="9"/>
-      <c r="AF31" s="9"/>
-      <c r="AG31" s="9"/>
-      <c r="AH31" s="9"/>
-      <c r="AI31" s="9"/>
-      <c r="AJ31" s="9"/>
-      <c r="AK31" s="9"/>
-      <c r="AL31" s="9"/>
+      <c r="AE31" s="7"/>
+      <c r="AF31" s="7"/>
+      <c r="AG31" s="7"/>
+      <c r="AH31" s="7"/>
+      <c r="AI31" s="7"/>
+      <c r="AJ31" s="7"/>
+      <c r="AK31" s="7"/>
+      <c r="AL31" s="7"/>
       <c r="AM31" s="4"/>
       <c r="AN31" s="4"/>
       <c r="AO31" s="4"/>
@@ -3391,11 +3500,11 @@
       <c r="BK31" s="2"/>
       <c r="BL31" s="2"/>
       <c r="BM31" s="2"/>
-      <c r="BN31" s="17"/>
+      <c r="BN31" s="8"/>
     </row>
     <row r="32" spans="2:66" ht="12.85" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B32" s="18"/>
-      <c r="C32" s="6"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="38"/>
       <c r="D32" s="2" t="s">
         <v>34</v>
       </c>
@@ -3435,11 +3544,11 @@
       <c r="AJ32" s="2"/>
       <c r="AK32" s="2"/>
       <c r="AL32" s="2"/>
-      <c r="AM32" s="9"/>
-      <c r="AN32" s="9"/>
-      <c r="AO32" s="9"/>
-      <c r="AP32" s="9"/>
-      <c r="AQ32" s="9"/>
+      <c r="AM32" s="7"/>
+      <c r="AN32" s="7"/>
+      <c r="AO32" s="7"/>
+      <c r="AP32" s="7"/>
+      <c r="AQ32" s="7"/>
       <c r="AR32" s="2"/>
       <c r="AS32" s="2"/>
       <c r="AT32" s="2"/>
@@ -3462,11 +3571,11 @@
       <c r="BK32" s="2"/>
       <c r="BL32" s="2"/>
       <c r="BM32" s="2"/>
-      <c r="BN32" s="17"/>
+      <c r="BN32" s="8"/>
     </row>
     <row r="33" spans="2:66" ht="12.85" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B33" s="18"/>
-      <c r="C33" s="6"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="38"/>
       <c r="D33" s="2" t="s">
         <v>35</v>
       </c>
@@ -3517,13 +3626,13 @@
       <c r="AU33" s="4"/>
       <c r="AV33" s="4"/>
       <c r="AW33" s="4"/>
-      <c r="AX33" s="9"/>
-      <c r="AY33" s="9"/>
-      <c r="AZ33" s="9"/>
-      <c r="BA33" s="9"/>
-      <c r="BB33" s="9"/>
-      <c r="BC33" s="9"/>
-      <c r="BD33" s="9"/>
+      <c r="AX33" s="7"/>
+      <c r="AY33" s="7"/>
+      <c r="AZ33" s="7"/>
+      <c r="BA33" s="7"/>
+      <c r="BB33" s="7"/>
+      <c r="BC33" s="7"/>
+      <c r="BD33" s="7"/>
       <c r="BE33" s="2"/>
       <c r="BF33" s="2"/>
       <c r="BG33" s="2"/>
@@ -3533,11 +3642,11 @@
       <c r="BK33" s="2"/>
       <c r="BL33" s="2"/>
       <c r="BM33" s="2"/>
-      <c r="BN33" s="17"/>
+      <c r="BN33" s="8"/>
     </row>
     <row r="34" spans="2:66" ht="12.85" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B34" s="18"/>
-      <c r="C34" s="6"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="38"/>
       <c r="D34" s="2" t="s">
         <v>23</v>
       </c>
@@ -3595,20 +3704,20 @@
       <c r="BB34" s="4"/>
       <c r="BC34" s="4"/>
       <c r="BD34" s="4"/>
-      <c r="BE34" s="9"/>
-      <c r="BF34" s="9"/>
-      <c r="BG34" s="9"/>
-      <c r="BH34" s="9"/>
-      <c r="BI34" s="9"/>
+      <c r="BE34" s="7"/>
+      <c r="BF34" s="7"/>
+      <c r="BG34" s="7"/>
+      <c r="BH34" s="7"/>
+      <c r="BI34" s="7"/>
       <c r="BJ34" s="2"/>
       <c r="BK34" s="2"/>
       <c r="BL34" s="2"/>
       <c r="BM34" s="2"/>
-      <c r="BN34" s="17"/>
+      <c r="BN34" s="8"/>
     </row>
     <row r="35" spans="2:66" ht="12.85" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B35" s="18"/>
-      <c r="C35" s="6"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="38"/>
       <c r="D35" s="3" t="s">
         <v>47</v>
       </c>
@@ -3675,11 +3784,11 @@
       <c r="BK35" s="2"/>
       <c r="BL35" s="2"/>
       <c r="BM35" s="2"/>
-      <c r="BN35" s="17"/>
+      <c r="BN35" s="8"/>
     </row>
     <row r="36" spans="2:66" ht="12.85" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B36" s="18"/>
-      <c r="C36" s="6"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="38"/>
       <c r="D36" s="2" t="s">
         <v>4</v>
       </c>
@@ -3718,7 +3827,7 @@
       <c r="AI36" s="2"/>
       <c r="AJ36" s="2"/>
       <c r="AK36" s="2"/>
-      <c r="AL36" s="26"/>
+      <c r="AL36" s="15"/>
       <c r="AM36" s="2"/>
       <c r="AN36" s="2"/>
       <c r="AO36" s="2"/>
@@ -3746,98 +3855,107 @@
       <c r="BK36" s="2"/>
       <c r="BL36" s="2"/>
       <c r="BM36" s="2"/>
-      <c r="BN36" s="17"/>
+      <c r="BN36" s="8"/>
     </row>
     <row r="37" spans="2:66" ht="12.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B37" s="19"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="21" t="s">
+      <c r="B37" s="10"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E37" s="21">
+      <c r="E37" s="11">
         <v>5</v>
       </c>
-      <c r="F37" s="21"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="21"/>
-      <c r="S37" s="21"/>
-      <c r="T37" s="21"/>
-      <c r="U37" s="21"/>
-      <c r="V37" s="21"/>
-      <c r="W37" s="21"/>
-      <c r="X37" s="21"/>
-      <c r="Y37" s="21"/>
-      <c r="Z37" s="21"/>
-      <c r="AA37" s="21"/>
-      <c r="AB37" s="21"/>
-      <c r="AC37" s="21"/>
-      <c r="AD37" s="21"/>
-      <c r="AE37" s="21"/>
-      <c r="AF37" s="21"/>
-      <c r="AG37" s="21"/>
-      <c r="AH37" s="21"/>
-      <c r="AI37" s="21"/>
-      <c r="AJ37" s="21"/>
-      <c r="AK37" s="21"/>
-      <c r="AL37" s="27"/>
-      <c r="AM37" s="21"/>
-      <c r="AN37" s="21"/>
-      <c r="AO37" s="21"/>
-      <c r="AP37" s="21"/>
-      <c r="AQ37" s="21"/>
-      <c r="AR37" s="21"/>
-      <c r="AS37" s="21"/>
-      <c r="AT37" s="21"/>
-      <c r="AU37" s="21"/>
-      <c r="AV37" s="21"/>
-      <c r="AW37" s="21"/>
-      <c r="AX37" s="21"/>
-      <c r="AY37" s="21"/>
-      <c r="AZ37" s="21"/>
-      <c r="BA37" s="21"/>
-      <c r="BB37" s="21"/>
-      <c r="BC37" s="21"/>
-      <c r="BD37" s="21"/>
-      <c r="BE37" s="21"/>
-      <c r="BF37" s="21"/>
-      <c r="BG37" s="21"/>
-      <c r="BH37" s="21"/>
-      <c r="BI37" s="21"/>
-      <c r="BJ37" s="21"/>
-      <c r="BK37" s="21"/>
-      <c r="BL37" s="21"/>
-      <c r="BM37" s="21"/>
-      <c r="BN37" s="23"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="11"/>
+      <c r="V37" s="11"/>
+      <c r="W37" s="11"/>
+      <c r="X37" s="11"/>
+      <c r="Y37" s="11"/>
+      <c r="Z37" s="11"/>
+      <c r="AA37" s="11"/>
+      <c r="AB37" s="11"/>
+      <c r="AC37" s="11"/>
+      <c r="AD37" s="11"/>
+      <c r="AE37" s="11"/>
+      <c r="AF37" s="11"/>
+      <c r="AG37" s="11"/>
+      <c r="AH37" s="11"/>
+      <c r="AI37" s="11"/>
+      <c r="AJ37" s="11"/>
+      <c r="AK37" s="11"/>
+      <c r="AL37" s="16"/>
+      <c r="AM37" s="11"/>
+      <c r="AN37" s="11"/>
+      <c r="AO37" s="11"/>
+      <c r="AP37" s="11"/>
+      <c r="AQ37" s="11"/>
+      <c r="AR37" s="11"/>
+      <c r="AS37" s="11"/>
+      <c r="AT37" s="11"/>
+      <c r="AU37" s="11"/>
+      <c r="AV37" s="11"/>
+      <c r="AW37" s="11"/>
+      <c r="AX37" s="11"/>
+      <c r="AY37" s="11"/>
+      <c r="AZ37" s="11"/>
+      <c r="BA37" s="11"/>
+      <c r="BB37" s="11"/>
+      <c r="BC37" s="11"/>
+      <c r="BD37" s="11"/>
+      <c r="BE37" s="11"/>
+      <c r="BF37" s="11"/>
+      <c r="BG37" s="11"/>
+      <c r="BH37" s="11"/>
+      <c r="BI37" s="11"/>
+      <c r="BJ37" s="11"/>
+      <c r="BK37" s="11"/>
+      <c r="BL37" s="11"/>
+      <c r="BM37" s="11"/>
+      <c r="BN37" s="13"/>
     </row>
     <row r="38" spans="2:66" x14ac:dyDescent="0.6">
       <c r="E38" s="1">
         <f>SUM(E6:E37)</f>
         <v>93</v>
       </c>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="C13:C25"/>
+    <mergeCell ref="C31:C37"/>
+    <mergeCell ref="F3:X3"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C26:C30"/>
     <mergeCell ref="Y3:BC3"/>
     <mergeCell ref="BD3:BN3"/>
     <mergeCell ref="B3:B5"/>
@@ -3851,15 +3969,6 @@
     <mergeCell ref="AN4:AT4"/>
     <mergeCell ref="AU4:BA4"/>
     <mergeCell ref="BD4:BH4"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="C13:C25"/>
-    <mergeCell ref="C31:C37"/>
-    <mergeCell ref="F3:X3"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C26:C30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
